--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181343</v>
+        <v>181345</v>
       </c>
       <c r="D8" t="n">
         <v>40102</v>
       </c>
       <c r="E8" t="n">
-        <v>649496241</v>
+        <v>649878687</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278182</v>
+        <v>278183</v>
       </c>
       <c r="D10" t="n">
         <v>29587</v>
       </c>
       <c r="E10" t="n">
-        <v>1751968897</v>
+        <v>1751972720</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134738</v>
+        <v>134739</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296783681</v>
+        <v>296786936</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20734</v>
+        <v>20735</v>
       </c>
       <c r="D69" t="n">
         <v>4496</v>
       </c>
       <c r="E69" t="n">
-        <v>62156144</v>
+        <v>62161544</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26159</v>
+        <v>26156</v>
       </c>
       <c r="D81" t="n">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="E81" t="n">
-        <v>165055889</v>
+        <v>165028835</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4469,13 +4469,13 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>136564</v>
+        <v>136566</v>
       </c>
       <c r="D99" t="n">
         <v>14096</v>
       </c>
       <c r="E99" t="n">
-        <v>862987621</v>
+        <v>863015376</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16861</v>
+        <v>16863</v>
       </c>
       <c r="D110" t="n">
         <v>2631</v>
       </c>
       <c r="E110" t="n">
-        <v>25926683</v>
+        <v>25926995</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -4961,13 +4961,13 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6001</v>
+        <v>6004</v>
       </c>
       <c r="D111" t="n">
         <v>1238</v>
       </c>
       <c r="E111" t="n">
-        <v>12004759</v>
+        <v>12042753</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
@@ -5084,13 +5084,13 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>7487</v>
+        <v>7488</v>
       </c>
       <c r="D114" t="n">
         <v>2188</v>
       </c>
       <c r="E114" t="n">
-        <v>11581850</v>
+        <v>11583350</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17527</v>
+        <v>17533</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38558282</v>
+        <v>38563671</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19682</v>
+        <v>19686</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56366479</v>
+        <v>56340101</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5330,13 +5330,13 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="D120" t="n">
         <v>455</v>
       </c>
       <c r="E120" t="n">
-        <v>4370460</v>
+        <v>4371451</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="D125" t="n">
         <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>13131239</v>
+        <v>13132883</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -5576,13 +5576,13 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="D126" t="n">
         <v>1176</v>
       </c>
       <c r="E126" t="n">
-        <v>8171016</v>
+        <v>8168120</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5661</v>
+        <v>5662</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17014321</v>
+        <v>17023521</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>95004</v>
+        <v>95005</v>
       </c>
       <c r="D150" t="n">
         <v>21156</v>
       </c>
       <c r="E150" t="n">
-        <v>278385823</v>
+        <v>278392604</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126038</v>
+        <v>126037</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715737500</v>
+        <v>715735940</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7052,13 +7052,13 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>62066</v>
+        <v>62067</v>
       </c>
       <c r="D162" t="n">
         <v>14055</v>
       </c>
       <c r="E162" t="n">
-        <v>113486860</v>
+        <v>113487855</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284892</v>
+        <v>284884</v>
       </c>
       <c r="D168" t="n">
         <v>58119</v>
       </c>
       <c r="E168" t="n">
-        <v>1207552985</v>
+        <v>1207126425</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367199</v>
+        <v>367189</v>
       </c>
       <c r="D170" t="n">
         <v>38104</v>
       </c>
       <c r="E170" t="n">
-        <v>2842969454</v>
+        <v>2842709840</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115075</v>
+        <v>115074</v>
       </c>
       <c r="D171" t="n">
         <v>20261</v>
       </c>
       <c r="E171" t="n">
-        <v>444083333</v>
+        <v>444080453</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357114</v>
+        <v>357109</v>
       </c>
       <c r="D174" t="n">
         <v>69784</v>
       </c>
       <c r="E174" t="n">
-        <v>1015580419</v>
+        <v>1015502936</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7591,7 +7591,7 @@
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>809208029</v>
+        <v>809382495</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96737</v>
+        <v>96738</v>
       </c>
       <c r="D177" t="n">
         <v>16506</v>
       </c>
       <c r="E177" t="n">
-        <v>174250595</v>
+        <v>174252127</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235612</v>
+        <v>235613</v>
       </c>
       <c r="D179" t="n">
         <v>29333</v>
       </c>
       <c r="E179" t="n">
-        <v>811445206</v>
+        <v>811458870</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141438</v>
+        <v>141436</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>339806735</v>
+        <v>339794168</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21923</v>
+        <v>21924</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>39901069</v>
+        <v>39902432</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19668</v>
+        <v>19677</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>65855103</v>
+        <v>65875236</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5339</v>
+        <v>5341</v>
       </c>
       <c r="D193" t="n">
         <v>1046</v>
       </c>
       <c r="E193" t="n">
-        <v>27508442</v>
+        <v>27521411</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7389</v>
+        <v>7391</v>
       </c>
       <c r="D196" t="n">
         <v>946</v>
       </c>
       <c r="E196" t="n">
-        <v>20430292</v>
+        <v>20454086</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8528,13 +8528,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>4504</v>
+        <v>4507</v>
       </c>
       <c r="D198" t="n">
         <v>788</v>
       </c>
       <c r="E198" t="n">
-        <v>5997886</v>
+        <v>5999037</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13086</v>
+        <v>13088</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32911910</v>
+        <v>32905556</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4746</v>
+        <v>4747</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11601630</v>
+        <v>11625430</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11109</v>
+        <v>11110</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>43920883</v>
+        <v>43922283</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -8979,13 +8979,13 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>5359</v>
+        <v>5361</v>
       </c>
       <c r="D209" t="n">
         <v>1136</v>
       </c>
       <c r="E209" t="n">
-        <v>12202102</v>
+        <v>12205320</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3624</v>
+        <v>3625</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11060696</v>
+        <v>11062086</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10209,13 +10209,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>84897</v>
+        <v>84899</v>
       </c>
       <c r="D239" t="n">
         <v>9400</v>
       </c>
       <c r="E239" t="n">
-        <v>500162277</v>
+        <v>500257654</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182541</v>
+        <v>182542</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063631079</v>
+        <v>1063631676</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10988,13 +10988,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>15134</v>
+        <v>15135</v>
       </c>
       <c r="D258" t="n">
         <v>2998</v>
       </c>
       <c r="E258" t="n">
-        <v>40605535</v>
+        <v>40650535</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -11357,13 +11357,13 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>84972</v>
+        <v>84971</v>
       </c>
       <c r="D267" t="n">
         <v>20049</v>
       </c>
       <c r="E267" t="n">
-        <v>156507576</v>
+        <v>156507125</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -12013,13 +12013,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>60837</v>
+        <v>60838</v>
       </c>
       <c r="D283" t="n">
         <v>9891</v>
       </c>
       <c r="E283" t="n">
-        <v>101608750</v>
+        <v>101611499</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91333</v>
+        <v>91330</v>
       </c>
       <c r="D295" t="n">
-        <v>9957</v>
+        <v>9956</v>
       </c>
       <c r="E295" t="n">
-        <v>552959258</v>
+        <v>552903537</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220628</v>
+        <v>220629</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1370580761</v>
+        <v>1370587363</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13653,13 +13653,13 @@
         </is>
       </c>
       <c r="C323" t="n">
-        <v>94721</v>
+        <v>94722</v>
       </c>
       <c r="D323" t="n">
         <v>19883</v>
       </c>
       <c r="E323" t="n">
-        <v>178778075</v>
+        <v>178789585</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
